--- a/xlsx/country_comparison/custom_redistr_satisfied_median.xlsx
+++ b/xlsx/country_comparison/custom_redistr_satisfied_median.xlsx
@@ -566,10 +566,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>208.3</v>
+        <v>208.296368342823</v>
       </c>
       <c r="C5" t="n">
-        <v>219.497986103757</v>
+        <v>219.166666666667</v>
       </c>
       <c r="D5" t="n">
         <v>184.555</v>
@@ -587,7 +587,7 @@
         <v>255.6</v>
       </c>
       <c r="I5" t="n">
-        <v>200.625</v>
+        <v>199.633333333333</v>
       </c>
       <c r="J5" t="n">
         <v>184.555</v>
@@ -625,7 +625,7 @@
         <v>4.64972181101283</v>
       </c>
       <c r="H6" t="n">
-        <v>4.46522552211791</v>
+        <v>4.64972181101283</v>
       </c>
       <c r="I6" t="n">
         <v>4.41998759297688</v>
